--- a/biology/Médecine/Odilon_Lannelongue/Odilon_Lannelongue.xlsx
+++ b/biology/Médecine/Odilon_Lannelongue/Odilon_Lannelongue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odilon Marc Lannelongue, né le 4 décembre 1840 à Castéra-Verduzan (Gers) et mort le 22 décembre 1911 à Paris, est un médecin et chirurgien français de renom.
 Il fut un chirurgien réputé, professeur à la faculté de médecine de Paris, membre de l’Académie des sciences, président de l’Académie nationale de chirurgie, puis de l’Académie de médecine, député et sénateur du Gers.
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né d'un officier de santé, Odilon Lannelongue passe son baccalauréat à Toulouse. Il monte ensuite sans un sou à Paris suivre des études de médecine. Vivant de petits boulots, puis infirmier externe, puis chirurgien interne, il finit comme major à l'agrégation de chirurgie en 1869.
-Appelé comme chirurgien pendant le siège de Paris durant la guerre de 1870-1871[1], il est nommé chirurgien major à la fin de la guerre. Ce titre lui donne accès aux cercles très fermés de la haute société parisienne. En 1876, il fait la connaissance à 36 ans d'une riche philanthrope, Marie de Rémusat (veuve, son mari est décédé 15 ans plus tôt). Ils se marient la même année.
+Appelé comme chirurgien pendant le siège de Paris durant la guerre de 1870-1871, il est nommé chirurgien major à la fin de la guerre. Ce titre lui donne accès aux cercles très fermés de la haute société parisienne. En 1876, il fait la connaissance à 36 ans d'une riche philanthrope, Marie de Rémusat (veuve, son mari est décédé 15 ans plus tôt). Ils se marient la même année.
 Marie, maintenant Marie Lannelongue, aidera Odilon à se propulser aux plus hautes sphères de la médecine française jusqu'à devenir le médecin personnel du Président de la République française.
-Il est élu en 1884 professeur de pathologie chirurgicale. En 1892, il est nommé comme président de la prestigieuse Association générale des médecins de France (AGMF)[2].
+Il est élu en 1884 professeur de pathologie chirurgicale. En 1892, il est nommé comme président de la prestigieuse Association générale des médecins de France (AGMF).
 La même année, il se lance en politique et devient maire de sa ville natale, Castéra-Verduzan. Il est ensuite élu député du Gers en 1893. Il devient quelques années plus tard sénateur du même département.
 Avides de voyages, Marie et Odilon Lannelongue font des tours d'Europe et tombent particulièrement amoureux de Venise d'où ils ramèneront pléthore de meubles, tissus, articles de décoration, luminaires, etc. afin de décorer leur hôtel particulier parisien.
 Ami et médecin du président Félix Faure, il sera appelé à l'Élysée lorsque ce dernier rend l'âme en son aimable compagnie en 1899.
@@ -554,7 +568,9 @@
           <t>Un tour du monde en 270 jours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après le décès subit de sa femme Marie en 1906, Odilon Lannelongue a beaucoup de mal à se focaliser sur son travail. Plus tard dans l'année, il entreprend un tour du monde pour se changer les idées mais transforme son voyage en tour d'Asie par manque de moyen de l'époque. Ce périple lui donne des idées et en octobre 1908, grâce à l'assistance de ses deux nièces et à la toute jeune agence de voyages, l'agence Cook, il recommencera sa tentative de faire le tour du monde et non pas seul cette fois-ci mais accompagné de ses deux nièces, Marie et Laure Lannelongue, d'un neveu, René de Marsay, et d'un fils d'amis de Liedekerke. On notera juste que sa nièce Marie (19 ans à l'époque) est la seule à avoir accompagné son oncle jusqu'au bout, tout autour du monde. En effet, peu de temps après le départ de Marseille à bord du Paquebot l'Australien, au fur et à mesure des étapes, les compagnons débarquaient de peur d'un si grand et long voyage où l'itinéraire n'était pas encore connu au-delà de Saïgon. La plus jeune nièce, Laure, qui avait une santé plus fragile a pris peur et a fait demi-tour dès la première escale au port de Messine en Italie. Messieurs de Marsay et de Liedekerke firent demi-tour arrivés à Port Saïd en Égypte avant que le paquebot ne s'engage dans le canal de Suez.
 Il parviendra à compléter son tour du monde lorsqu'il arrive en port du Havre en juillet 1909. Il publiera un merveilleux livre aux éditions Larousse : Un tour du monde (le fait que le livre soit signé O.-M. Lannelongue suggèrerait que sa nièce Marie soit pour beaucoup dans la rédaction du livre).
@@ -589,7 +605,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Odilon Lannelongue est l'auteur de nombreuses publications, dont :
 Du pied bot congénital : thèse présentée au concours pour l'agrégation (section de chirurgie) et soutenue à la faculté de médecine de Paris le 31 mai 1869, Asselin, 1869, 118 pages
@@ -634,15 +652,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Médaille internationale de chirurgie
-Il a créé peu de temps avant sa mort en fin d'année 1911 la Médaille internationale de chirurgie (Fondation Lannelongue) en souvenir de son épouse Marie Lannelongue, née Cibiel, veuve du vicomte Pierre de Rémusat, infirmière dévouée aux blessés de la guerre de 1870.
+          <t>Médaille internationale de chirurgie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a créé peu de temps avant sa mort en fin d'année 1911 la Médaille internationale de chirurgie (Fondation Lannelongue) en souvenir de son épouse Marie Lannelongue, née Cibiel, veuve du vicomte Pierre de Rémusat, infirmière dévouée aux blessés de la guerre de 1870.
 La médaille est toujours attribuée de nos jours tous les cinq ans par l'Académie de chirurgie. Elle est internationale, c’est-à-dire attribuée à un chirurgien de n’importe quel pays qui aura fait la découverte chirurgicale la plus notable ou les travaux les plus utiles à l’art et à la science de la chirurgie. L’attribution ne pourra être faite deux fois de suite dans la même nationalité et répond à des règles complexes et strictes.
 Les trente dernières années ont vu la nomination de Thomas Starzl (Pittsburgh), Claude Couinaud (Paris), Norman Shumway (Stanford), Robert Merle d'Aubigné (Paris), Ton That Tung (Hanoï), François de Gaudart d’Allaines (Paris), Christian Cabrol.
-Médaille à son effigie
-Une médaille à l'effigie d'Odilon Lannelongue a été exécutée par le graveur Jules-Clément Chaplain en 1901. Un exemplaire en est conservé au musée Carnavalet (ND 0310).
-Distinctions
- Commandeur de la Légion d'honneur (7 aout 1900)[3]
- Officier de l'Instruction publique</t>
+</t>
         </is>
       </c>
     </row>
@@ -667,14 +686,90 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médaille à son effigie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une médaille à l'effigie d'Odilon Lannelongue a été exécutée par le graveur Jules-Clément Chaplain en 1901. Un exemplaire en est conservé au musée Carnavalet (ND 0310).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Odilon_Lannelongue</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odilon_Lannelongue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur (7 aout 1900)
+ Officier de l'Instruction publique</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Odilon_Lannelongue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odilon_Lannelongue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Toponymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les institutions et voies suivantes ont été nommées en son honneur :
 l’Institut Odilon-Lannelongue à Vanves (Hauts-de-Seine),
-le FAM Lannelongue à Saint-Trojan-les-Bains (Charente-Maritime)[4],
+le FAM Lannelongue à Saint-Trojan-les-Bains (Charente-Maritime),
 la place Odilon-Lannelongue à Castéra-Verduzan,
 la place Lannelongue à Condom,
 l'avenue du Docteur-Lannelongue à Paris (XIVe arrondissement) et à Montrouge,
@@ -687,31 +782,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Odilon_Lannelongue</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Odilon_Lannelongue</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>« Odilon Lannelongue », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]</t>
         </is>
